--- a/data/Subset1_WithDialogActs/Jeffs group 2_first grade.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Jeffs group 2_first grade.xlsx_with_dialog_acts.xlsx
@@ -905,12 +905,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1267,12 +1267,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1305,12 +1305,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1575,12 +1575,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1807,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2499,12 +2499,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2967,12 +2967,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3291,12 +3291,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
